--- a/medicine/Enfance/Maguelonne_Toussaint-Samat/Maguelonne_Toussaint-Samat.xlsx
+++ b/medicine/Enfance/Maguelonne_Toussaint-Samat/Maguelonne_Toussaint-Samat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maguelonne Toussaint-Samat, née Samat de Soulès[1] le 11 juin 1926 dans le 14e arrondissement de Paris et morte le 4 juin 2018 à Parmain, est une femme de lettres française, auteure de romans policiers, de littérature d'enfance et de jeunesse et de livres de cuisine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maguelonne Toussaint-Samat, née Samat de Soulès le 11 juin 1926 dans le 14e arrondissement de Paris et morte le 4 juin 2018 à Parmain, est une femme de lettres française, auteure de romans policiers, de littérature d'enfance et de jeunesse et de livres de cuisine.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maguelonne Toussaint-Samat est la fille de l'écrivain Jean-Toussaint Samat, dont elle achève en 1949 le dernier roman, Le Mort et sa fille, et de la traductrice Renée Vally-Samat[2]. Journaliste, elle est également directrice de la collection de romans policiers La Main rouge éditée par les éditions des Deux-mondes. En 1950, elle publie Concerto pour meurtre et orchestre. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maguelonne Toussaint-Samat est la fille de l'écrivain Jean-Toussaint Samat, dont elle achève en 1949 le dernier roman, Le Mort et sa fille, et de la traductrice Renée Vally-Samat. Journaliste, elle est également directrice de la collection de romans policiers La Main rouge éditée par les éditions des Deux-mondes. En 1950, elle publie Concerto pour meurtre et orchestre. 
 À partir des années 1960, elle fait paraître des ouvrages pour la jeunesse, en particulier des contes et légendes de différents pays ou régions françaises. Puis, dans les années 1970, elle commence la publication d'ouvrages sur la gastronomie et des livres de cuisine.
 L’Académie française lui décerne le prix Montyon en 1962 pour l’ensemble de son œuvre.
-Maguelonne Toussaint-Samat meurt le 4 juin 2018 à Parmain[3] et elle est inhumée à L'Isle-Adam[4].
+Maguelonne Toussaint-Samat meurt le 4 juin 2018 à Parmain et elle est inhumée à L'Isle-Adam.
 </t>
         </is>
       </c>
@@ -547,15 +561,95 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Romans policiers
-Le Mort et sa fille, Éditions des Deux-mondes, coll. « La Main rouge » no 1 (1949)
-Concerto pour meurtre et orchestre, Éditions des Deux-mondes, coll. « La Main rouge » no 8 (1950)
-Autres romans
-L'Extravagante Madame Doucet, Calmann-Lévy (1952)
-La Somnambule, Saint-Mont (2007)  (ISBN 2-84755-063-1)
-Littérature d'enfance et de jeunesse
-Contes et légendes des croisades, Nathan (1961)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Mort et sa fille, Éditions des Deux-mondes, coll. « La Main rouge » no 1 (1949)
+Concerto pour meurtre et orchestre, Éditions des Deux-mondes, coll. « La Main rouge » no 8 (1950)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maguelonne_Toussaint-Samat</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maguelonne_Toussaint-Samat</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'Extravagante Madame Doucet, Calmann-Lévy (1952)
+La Somnambule, Saint-Mont (2007)  (ISBN 2-84755-063-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Maguelonne_Toussaint-Samat</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maguelonne_Toussaint-Samat</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Contes et légendes des croisades, Nathan (1961)
 Récits des châteaux de la Loire, Nathan, coll. « Contes et légendes de tous les pays » (1970)
 Prix Sobrier-Arnould de l’Académie française en 1972
 Virginie a quatorze ans ou le Nouvel art de vivre, Magnard (1971)
@@ -571,9 +665,43 @@
 Contes des Pyrénées, Éditions Sud Ouest, coll. « Contes » (2002)  (ISBN 2-87901-464-6)
 Contes d'Auvergne, Éditions Sud Ouest, coll. « Contes » (2002)  (ISBN 2-87901-494-8)
 Histoires de nulle part et d'ailleurs, Saint-Mont (2004)  (ISBN 2-84755-052-6)
-Contes d'Auvergne et du Bourbonnais, Éditions Sud Ouest (2013)  (ISBN 978-2-8177-0311-4)
-Autres ouvrages
-L'Africaine et sa maison, Les Classiques africains (1968)
+Contes d'Auvergne et du Bourbonnais, Éditions Sud Ouest (2013)  (ISBN 978-2-8177-0311-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Maguelonne_Toussaint-Samat</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maguelonne_Toussaint-Samat</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'Africaine et sa maison, Les Classiques africains (1968)
 La Femme de quarante ans, Grasset, coll. « Femmes dans la vie » (1973)
 Les Vertus des plantes, Ramsay, coll. « Les Livres "Femme pratique" » (1979)  (ISBN 2-85956-132-3)
 Biscuits et confiserie de ménage, Éditions Berger-Levrault, coll. « Le Berger vert » (1980)  (ISBN 2-7013-0357-5)
@@ -598,61 +726,65 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Maguelonne_Toussaint-Samat</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Maguelonne_Toussaint-Samat</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de l'ordre national du Mérite (2005)[1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de l'ordre national du Mérite (2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Maguelonne_Toussaint-Samat</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Maguelonne_Toussaint-Samat</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
 Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 2 : J - Z, Nantes, Joseph K, coll. « Temps noir », 2007, 1086 p. (ISBN 978-2-910-68645-1, OCLC 315873361), p. 895.</t>
